--- a/Roles.xlsx
+++ b/Roles.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
   <si>
     <t>Role</t>
   </si>
@@ -256,6 +256,109 @@
   </si>
   <si>
     <t>If prince is voted to die during the day, he is revealed to be the prince and does not day. Village falls asleep immediately after elimination attempt</t>
+  </si>
+  <si>
+    <t>Seer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wakes each night and choose s a payer to see if they are a wolf or villager. Moderator indicates thumbs up or W sign for wolf, thumbs down or V sign for villager. </t>
+  </si>
+  <si>
+    <t>Sorceress</t>
+  </si>
+  <si>
+    <t>Wakes each night looking for the seer. Chooses a player and gets thumbs up for seer, thumbs down for anything else. Doesn't know wolves, wolves don't know her. Seer/PI sees her as a villager</t>
+  </si>
+  <si>
+    <t>Alternate: Wakes the first night to see who werewolves are. Significant advantage for wolves</t>
+  </si>
+  <si>
+    <t>Spellcaster</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wakes each night to choose a player who is muted during next day </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if she wants</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Player cannot talk but can communicate otherwise. Cannot mute self, cannot mute same player two nights in a row</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Alternate: Spellcaster </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>must</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> choose a player each night</t>
+    </r>
+  </si>
+  <si>
+    <t>Tanner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only wins if eliminated. Victory conditions are same for other teams, game continues if tanner dies. </t>
+  </si>
+  <si>
+    <t>Alternate: Only tanner wins if eliminated, game ends once he dies</t>
+  </si>
+  <si>
+    <t>Tough guy</t>
+  </si>
+  <si>
+    <t>If chosen by wolves, he dies the next night as opposed to that same night. Players are told that no one was eliminated the night he is targeted. The night after two or more people are eliminated: him + anyone else wolves choose for the night</t>
+  </si>
+  <si>
+    <t>Troublemaker</t>
+  </si>
+  <si>
+    <t>Can choose once per game to call for two eliminations that night. Woken by moderator each night until they choose to have double elimination</t>
+  </si>
+  <si>
+    <t>Each night until ability is used</t>
+  </si>
+  <si>
+    <t>Vampire</t>
+  </si>
+  <si>
+    <t>Other (Vampire)</t>
+  </si>
+  <si>
+    <t>Choose target each night (in addition to werewolf target)</t>
   </si>
 </sst>
 </file>
@@ -623,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,6 +1131,128 @@
       </c>
       <c r="E22" s="6">
         <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="6">
+        <v>-3</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="6">
+        <v>-2</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="6">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Roles.xlsx
+++ b/Roles.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="98">
   <si>
     <t>Role</t>
   </si>
@@ -359,6 +359,39 @@
   </si>
   <si>
     <t>Choose target each night (in addition to werewolf target)</t>
+  </si>
+  <si>
+    <t>Village idiot</t>
+  </si>
+  <si>
+    <t>Always votes down</t>
+  </si>
+  <si>
+    <t>Alternate: Role is not given as a card, but chosen randomly after roles are given. Idiot is not told, their vote is just always counted as a downvote</t>
+  </si>
+  <si>
+    <t>Villager</t>
+  </si>
+  <si>
+    <t>Find out who the wolves are!</t>
+  </si>
+  <si>
+    <t>Wake first night to see other wolves. Subsiquent nights they agree on a target to eliminate. If it takes more than a minute to choose a target they do not get to choose a target. Cannot choose another werewolf to eliminate</t>
+  </si>
+  <si>
+    <t>Witch</t>
+  </si>
+  <si>
+    <t>Wakes each night and can choose once per game to save a player slated for elimination. Can also choose once per game to eliminate a player. Both powers can be used in same night. Is still called to wake every night after powers are used but cannot use powers again</t>
+  </si>
+  <si>
+    <t>Alternate: May only use one of two powers during the game, but gets to choose which</t>
+  </si>
+  <si>
+    <t>Wolf Cub</t>
+  </si>
+  <si>
+    <t>Werewolf that wakes with other wolves. If killed, wolves kill two players the next night</t>
   </si>
 </sst>
 </file>
@@ -726,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,6 +1286,103 @@
       </c>
       <c r="C29" s="3" t="s">
         <v>86</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="6">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="6">
+        <v>2</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="6">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="6">
+        <v>4</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="6">
+        <v>-8</v>
       </c>
     </row>
   </sheetData>

--- a/Roles.xlsx
+++ b/Roles.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Roles" sheetId="1" r:id="rId1"/>
+    <sheet name="Turn Order" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="106">
   <si>
     <t>Role</t>
   </si>
@@ -393,12 +393,36 @@
   <si>
     <t>Werewolf that wakes with other wolves. If killed, wolves kill two players the next night</t>
   </si>
+  <si>
+    <t>Turn Order</t>
+  </si>
+  <si>
+    <t>First Night</t>
+  </si>
+  <si>
+    <t>Masons</t>
+  </si>
+  <si>
+    <t>Subsiquent Nights</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Bodyguard</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Vampires</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,6 +441,14 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -444,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -457,6 +489,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,13 +1431,128 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A10:C10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
